--- a/Dataset/Folds/Fold_5/Excel/59.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/59.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3658" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4090" uniqueCount="547">
   <si>
     <t>Doi</t>
   </si>
@@ -1625,6 +1625,169 @@
   </si>
   <si>
     <t>[Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%2,                           Yan%Deng%NULL%2,                           Wei%Liu%NULL%2,                           Mei-Fang%Wang%NULL%1,                           Jing-Ping%Ma%NULL%1,                           Wei%Xiao%NULL%2,                           Ying-Nan%Wang%NULL%1,                           Min-Hua%Zhong%NULL%1,                           Cheng-Hong%Li%NULL%1,                           Guang-Cai%Li%NULL%1,                           Hui-Guo%Liu%NULL%3,                           Xiu-Yuan%Hao%NULL%4,                           Xiu-Yuan%Hao%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                            Austin R%Morrison%NULL%1,                            Amit%Vahia%NULL%0,                            Zachary R%Smith%NULL%1,                            Zohra%Chaudhry%NULL%0,                            Pallavi%Bhargava%NULL%1,                            Joseph%Miller%NULL%0,                            Rachel M%Kenney%NULL%1,                            George%Alangaden%NULL%0,                            Mayur S%Ramesh%mramesh1@hfhs.org%1,                            Varidhi%Nauriyal%NULL%1,                            Jayanth%Lakshmikanth%NULL%1,                            Asif%Abdul Hamed%NULL%1,                            Owais%Nadeem%NULL%1,                            Kristin%Griebe%NULL%1,                            Joseph M%Johnson%NULL%1,                            Patrick%Bradley%NULL%1,                            Junior%Uduman%NULL%1,                            Sara%Hegab%NULL%1,                            Jennifer%Swiderek%NULL%1,                            Amanda%Godfrey%NULL%1,                            Jeffrey%Jennings%NULL%1,                            Jayna%Gardner-Gray%NULL%1,                            Adam%Ackerman%NULL%1,                            Jonathan%Lezotte%NULL%1,                            Joseph%Ruhala%NULL%1,                            Linoj%Samuel%NULL%1,                            Robert J%Tibbetts%NULL%1,                            Indira%Brar%NULL%0,                            John%McKinnon%NULL%1,                            Geehan%Suleyman%NULL%1,                            Nicholas%Yared%NULL%1,                            Erica%Herc%NULL%1,                            Jonathan%Williams%NULL%1,                            Odaliz Abreu%Lanfranco%NULL%1,                            Anne%Chen%NULL%0,                            Marcus%Zervos%NULL%1,                            Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                            Qing%Mei%NULL%2,                            Tianjun%Yang%NULL%2,                            Lei%Li%NULL%0,                            Yinzhong%Wang%NULL%2,                            Fei%Tong%NULL%2,                            Shike%Geng%NULL%2,                            Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                            Qing%Mei%NULL%0,                            Tianjun%Yang%NULL%0,                            Lei%Li%NULL%0,                            Yinzhong%Wang%NULL%0,                            Fei%Tong%NULL%0,                            Shike%Geng%NULL%0,                            Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                            Shui-Bao%Xu%NULL%2,                            Yi-Xiao%Lin%NULL%2,                            Di%Tian%NULL%2,                            Zhao-Qin%Zhu%NULL%2,                            Fa-Hui%Dai%NULL%2,                            Fan%Wu%NULL%2,                            Zhi-Gang%Song%NULL%2,                            Wei%Huang%NULL%2,                            Jun%Chen%NULL%0,                            Bi-Jie%Hu%NULL%2,                            Sheng%Wang%NULL%2,                            En-Qiang%Mao%NULL%2,                            Lei%Zhu%NULL%2,                            Wen-Hong%Zhang%NULL%2,                            Hong-Zhou%Lu%NULL%2,                            Peng%Lyu%NULL%4,                            Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                            Taige%Chen%NULL%1,                            Yang%Wang%NULL%1,                            Jun%Wang%NULL%2,                            Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                            Weiwei%Jiang%NULL%1,                            Qi%He%NULL%1,                            Cheng%Wang%NULL%3,                            Baoju%Wang%NULL%1,                            Pan%Zhou%NULL%1,                            Nianguo%Dong%dongnianguo63@gmail.com%1,                            Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                            Shirong%Li%NULL%1,                            Lingling%Pan%NULL%1,                            Boris%Tefsen%NULL%1,                            Yeshan%Li%NULL%1,                            Neil%French%NULL%1,                            Liyun%Chen%NULL%1,                            Gang%Yang%NULL%1,                            Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                            Yisi%Liu%NULL%2,                            Dongdong%Tian%NULL%2,                            Cheng%Wang%NULL%0,                            Sa%Wang%NULL%2,                            Jing%Cheng%NULL%2,                            Ming%Hu%huming74@163.com%0,                            Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                            Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                            Yisi%Liu%NULL%0,                            Dongdong%Tian%NULL%0,                            Cheng%Wang%NULL%0,                            Sa%Wang%NULL%0,                            Jing%Cheng%NULL%0,                            Ming%Hu%huming74@163.com%0,                            Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                            Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                            Xiao-ping%Tang%NULL%1,                            Shou-yong%Tan%NULL%1,                            Bi-ling%Liang%NULL%1,                            Zhuo-yue%Wan%NULL%1,                            Ji-qian%Fang%NULL%1,                            Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                            Efehi%Igbinomwanhia%NULL%1,                            Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                            Sorin%Danciu%NULL%1,                            Chae%Chu%NULL%1,                            Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                            Mao%Jiang%NULL%1,                            Da%Xia%NULL%1,                            Lichao%He%NULL%1,                            Xin%Lv%NULL%1,                            Xiaohua%Liao%NULL%1,                            Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                            Yuan-Yuan%Fang%NULL%2,                            Yan%Deng%NULL%2,                            Wei%Liu%NULL%2,                            Mei-Fang%Wang%NULL%1,                            Jing-Ping%Ma%NULL%1,                            Wei%Xiao%NULL%2,                            Ying-Nan%Wang%NULL%1,                            Min-Hua%Zhong%NULL%1,                            Cheng-Hong%Li%NULL%1,                            Guang-Cai%Li%NULL%1,                            Hui-Guo%Liu%NULL%3,                            Xiu-Yuan%Hao%NULL%4,                            Xiu-Yuan%Hao%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0,                             Austin R%Morrison%NULL%1,                             Amit%Vahia%NULL%0,                             Zachary R%Smith%NULL%1,                             Zohra%Chaudhry%NULL%0,                             Pallavi%Bhargava%NULL%1,                             Joseph%Miller%NULL%0,                             Rachel M%Kenney%NULL%1,                             George%Alangaden%NULL%0,                             Mayur S%Ramesh%mramesh1@hfhs.org%1,                             Varidhi%Nauriyal%NULL%1,                             Jayanth%Lakshmikanth%NULL%1,                             Asif%Abdul Hamed%NULL%1,                             Owais%Nadeem%NULL%1,                             Kristin%Griebe%NULL%1,                             Joseph M%Johnson%NULL%1,                             Patrick%Bradley%NULL%1,                             Junior%Uduman%NULL%1,                             Sara%Hegab%NULL%1,                             Jennifer%Swiderek%NULL%1,                             Amanda%Godfrey%NULL%1,                             Jeffrey%Jennings%NULL%1,                             Jayna%Gardner-Gray%NULL%1,                             Adam%Ackerman%NULL%1,                             Jonathan%Lezotte%NULL%1,                             Joseph%Ruhala%NULL%1,                             Linoj%Samuel%NULL%1,                             Robert J%Tibbetts%NULL%1,                             Indira%Brar%NULL%0,                             John%McKinnon%NULL%1,                             Geehan%Suleyman%NULL%1,                             Nicholas%Yared%NULL%1,                             Erica%Herc%NULL%1,                             Jonathan%Williams%NULL%1,                             Odaliz Abreu%Lanfranco%NULL%1,                             Anne%Chen%NULL%0,                             Marcus%Zervos%NULL%1,                             Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%2,                             Qing%Mei%NULL%2,                             Tianjun%Yang%NULL%2,                             Lei%Li%NULL%0,                             Yinzhong%Wang%NULL%2,                             Fei%Tong%NULL%2,                             Shike%Geng%NULL%2,                             Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0,                             Qing%Mei%NULL%0,                             Tianjun%Yang%NULL%0,                             Lei%Li%NULL%0,                             Yinzhong%Wang%NULL%0,                             Fei%Tong%NULL%0,                             Shike%Geng%NULL%0,                             Aijun%Pan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%2,                             Shui-Bao%Xu%NULL%2,                             Yi-Xiao%Lin%NULL%2,                             Di%Tian%NULL%2,                             Zhao-Qin%Zhu%NULL%2,                             Fa-Hui%Dai%NULL%2,                             Fan%Wu%NULL%2,                             Zhi-Gang%Song%NULL%2,                             Wei%Huang%NULL%2,                             Jun%Chen%NULL%0,                             Bi-Jie%Hu%NULL%2,                             Sheng%Wang%NULL%2,                             En-Qiang%Mao%NULL%2,                             Lei%Zhu%NULL%2,                             Wen-Hong%Zhang%NULL%2,                             Hong-Zhou%Lu%NULL%2,                             Peng%Lyu%NULL%4,                             Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0,                             Taige%Chen%NULL%1,                             Yang%Wang%NULL%1,                             Jun%Wang%NULL%2,                             Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0,                             Weiwei%Jiang%NULL%1,                             Qi%He%NULL%1,                             Cheng%Wang%NULL%3,                             Baoju%Wang%NULL%1,                             Pan%Zhou%NULL%1,                             Nianguo%Dong%dongnianguo63@gmail.com%1,                             Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0,                             Shirong%Li%NULL%1,                             Lingling%Pan%NULL%1,                             Boris%Tefsen%NULL%1,                             Yeshan%Li%NULL%1,                             Neil%French%NULL%1,                             Liyun%Chen%NULL%1,                             Gang%Yang%NULL%1,                             Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%2,                             Yisi%Liu%NULL%2,                             Dongdong%Tian%NULL%2,                             Cheng%Wang%NULL%0,                             Sa%Wang%NULL%2,                             Jing%Cheng%NULL%2,                             Ming%Hu%huming74@163.com%0,                             Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                             Yue%Gao%gaoyue@bmi.ac.cn%3]</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0,                             Yisi%Liu%NULL%0,                             Dongdong%Tian%NULL%0,                             Cheng%Wang%NULL%0,                             Sa%Wang%NULL%0,                             Jing%Cheng%NULL%0,                             Ming%Hu%huming74@163.com%0,                             Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0,                             Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%1,                             Xiao-ping%Tang%NULL%1,                             Shou-yong%Tan%NULL%1,                             Bi-ling%Liang%NULL%1,                             Zhuo-yue%Wan%NULL%1,                             Ji-qian%Fang%NULL%1,                             Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%1,                             Efehi%Igbinomwanhia%NULL%1,                             Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1,                             Sorin%Danciu%NULL%1,                             Chae%Chu%NULL%1,                             Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%1,                             Mao%Jiang%NULL%1,                             Da%Xia%NULL%1,                             Lichao%He%NULL%1,                             Xin%Lv%NULL%1,                             Xiaohua%Liao%NULL%1,                             Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                             Yuan-Yuan%Fang%NULL%2,                             Yan%Deng%NULL%2,                             Wei%Liu%NULL%2,                             Mei-Fang%Wang%NULL%1,                             Jing-Ping%Ma%NULL%1,                             Wei%Xiao%NULL%2,                             Ying-Nan%Wang%NULL%1,                             Min-Hua%Zhong%NULL%1,                             Cheng-Hong%Li%NULL%1,                             Guang-Cai%Li%NULL%1,                             Hui-Guo%Liu%NULL%3,                             Xiu-Yuan%Hao%NULL%4,                             Xiu-Yuan%Hao%NULL%0,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0, Austin R%Morrison%NULL%0, Amit%Vahia%NULL%0, Zachary R%Smith%NULL%0, Zohra%Chaudhry%NULL%0, Pallavi%Bhargava%NULL%0, Joseph%Miller%NULL%0, Rachel M%Kenney%NULL%0, George%Alangaden%NULL%0, Mayur S%Ramesh%mramesh1@hfhs.org%0, Varidhi%Nauriyal%NULL%0, Jayanth%Lakshmikanth%NULL%0, Asif%Abdul Hamed%NULL%0, Owais%Nadeem%NULL%0, Kristin%Griebe%NULL%0, Joseph M%Johnson%NULL%0, Patrick%Bradley%NULL%0, Junior%Uduman%NULL%0, Sara%Hegab%NULL%0, Jennifer%Swiderek%NULL%0, Amanda%Godfrey%NULL%0, Jeffrey%Jennings%NULL%0, Jayna%Gardner-Gray%NULL%0, Adam%Ackerman%NULL%0, Jonathan%Lezotte%NULL%0, Joseph%Ruhala%NULL%0, Linoj%Samuel%NULL%0, Robert J%Tibbetts%NULL%0, Indira%Brar%NULL%0, John%McKinnon%NULL%0, Geehan%Suleyman%NULL%0, Nicholas%Yared%NULL%0, Erica%Herc%NULL%0, Jonathan%Williams%NULL%0, Odaliz Abreu%Lanfranco%NULL%0, Anne%Chen%NULL%0, Marcus%Zervos%NULL%0, Eric%Scher%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Xiaowei%Fang%NULL%0, Qing%Mei%NULL%2, Tianjun%Yang%NULL%2, Lei%Li%NULL%0, Yinzhong%Wang%NULL%2, Fei%Tong%NULL%2, Shike%Geng%NULL%2, Aijun%Pan%NULL%3]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Yun%Ling%NULL%0, Shui-Bao%Xu%NULL%2, Yi-Xiao%Lin%NULL%2, Di%Tian%NULL%2, Zhao-Qin%Zhu%NULL%2, Fa-Hui%Dai%NULL%2, Fan%Wu%NULL%2, Zhi-Gang%Song%NULL%2, Wei%Huang%NULL%2, Jun%Chen%NULL%0, Bi-Jie%Hu%NULL%2, Sheng%Wang%NULL%2, En-Qiang%Mao%NULL%2, Lei%Zhu%NULL%0, Wen-Hong%Zhang%NULL%2, Hong-Zhou%Lu%NULL%2, Peng%Lyu%NULL%0, Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0, Taige%Chen%NULL%0, Yang%Wang%NULL%0, Jun%Wang%NULL%0, Fangrong%Yan%f.r.yan@163.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0, Weiwei%Jiang%NULL%0, Qi%He%NULL%0, Cheng%Wang%NULL%0, Baoju%Wang%NULL%0, Pan%Zhou%NULL%0, Nianguo%Dong%dongnianguo63@gmail.com%0, Qiaoxia%Tong%2013xh0859@hust.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0, Shirong%Li%NULL%0, Lingling%Pan%NULL%0, Boris%Tefsen%NULL%0, Yeshan%Li%NULL%0, Neil%French%NULL%0, Liyun%Chen%NULL%0, Gang%Yang%NULL%0, Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Wei%Zhou%NULL%0, Yisi%Liu%NULL%2, Dongdong%Tian%NULL%2, Cheng%Wang%NULL%0, Sa%Wang%NULL%2, Jing%Cheng%NULL%2, Ming%Hu%huming74@163.com%0, Minghao%Fang%fangmh@tjh.tjmu.edu.cn%0, Yue%Gao%gaoyue@bmi.ac.cn%0]</t>
+  </si>
+  <si>
+    <t>[Rong-chang%Chen%NULL%0, Xiao-ping%Tang%NULL%1, Shou-yong%Tan%NULL%1, Bi-ling%Liang%NULL%1, Zhuo-yue%Wan%NULL%1, Ji-qian%Fang%NULL%1, Nanshan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>The American College of Chest Physicians. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>We describes a case of a critically ill patient with myocarditis and severe acute respiratory distress syndrome related to coronavirus disease-2019. This case highlights management strategies, including the use of corticosteroids, an interleukin-6 inhibitor, and an aldose reductase inhibitor, resulting in complete clinical recovery.
+ (Level of Difficulty: Intermediate.
+)</t>
+  </si>
+  <si>
+    <t>[Justin%Coyle%NULL%0, Efehi%Igbinomwanhia%NULL%1, Alejandro%Sanchez-Nadales%alejandro.sanchez2@advocatehealth.com%1, Sorin%Danciu%NULL%1, Chae%Chu%NULL%1, Nishit%Shah%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>Clusters of patients with novel coronavirus disease 2019 (COVID-19) have been successively reported globally.
+ Studies show clear person-to-person transmission.
+ The average incubation period is 2–14 days, and mostly 3–7 days.
+ However, in some patients, this period may be longer.
+ Here, we report a familial cluster of COVID-19 where a 47-year-old woman with long-term use of glucocorticoids did not develop any symptoms within the 14-day quarantine period but was confirmed with COVID-19 by tested positive of antibody on day 40 after she left Wuhan.
+ Almost at the same time, her father and sister were diagnosed with COVID-19. The results suggest that the long-term use of glucocorticoids might cause atypical infections, a long incubation period, and extra transmission of COVID-19.</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Han%NULL%0, Mao%Jiang%NULL%1, Da%Xia%NULL%1, Lichao%He%NULL%1, Xin%Lv%NULL%1, Xiaohua%Liao%NULL%1, Jie%Meng%mengjie@csu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Yan%Deng%NULL%0, Wei%Liu%NULL%0, Mei-Fang%Wang%NULL%0, Jing-Ping%Ma%NULL%0, Wei%Xiao%NULL%0, Ying-Nan%Wang%NULL%0, Min-Hua%Zhong%NULL%0, Cheng-Hong%Li%NULL%0, Guang-Cai%Li%NULL%0, Hui-Guo%Liu%NULL%0, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +2134,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1983,10 +2146,10 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
@@ -2003,7 +2166,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -2015,10 +2178,10 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
@@ -2035,7 +2198,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>482</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -2047,10 +2210,10 @@
         <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
@@ -2067,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -2079,10 +2242,10 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6">
@@ -2099,7 +2262,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -2111,10 +2274,10 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
@@ -2131,7 +2294,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -2143,10 +2306,10 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8">
@@ -2157,25 +2320,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>486</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
         <v>38</v>
@@ -2227,7 +2390,7 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -2239,10 +2402,10 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
@@ -2259,7 +2422,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2271,10 +2434,10 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12">
@@ -2291,7 +2454,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="F12" t="s">
         <v>72</v>
@@ -2303,10 +2466,10 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13">
@@ -2323,7 +2486,7 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
@@ -2335,10 +2498,10 @@
         <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14">
@@ -2355,7 +2518,7 @@
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
@@ -2367,10 +2530,10 @@
         <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15">
@@ -2384,10 +2547,10 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="E15" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="F15" t="s">
         <v>83</v>
@@ -2399,10 +2562,10 @@
         <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16">
@@ -2416,10 +2579,10 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>543</v>
       </c>
       <c r="E16" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>88</v>
@@ -2431,10 +2594,10 @@
         <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17">
@@ -2451,7 +2614,7 @@
         <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>494</v>
+        <v>546</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
@@ -2463,10 +2626,10 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18">
